--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="143">
   <si>
     <t>Item Number</t>
   </si>
@@ -433,6 +433,42 @@
   </si>
   <si>
     <t>a345f000000uI3IAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-RV982</t>
+  </si>
+  <si>
+    <t>a345f000000uQ1FAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-SWEOX</t>
+  </si>
+  <si>
+    <t>a345f000000uQ1KAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-UN0SV</t>
+  </si>
+  <si>
+    <t>a345f000000uQ1PAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-FNKFK</t>
+  </si>
+  <si>
+    <t>a345f000000uRAdAAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-H4W3L</t>
+  </si>
+  <si>
+    <t>a345f000000uRCtAAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-I3FR5</t>
+  </si>
+  <si>
+    <t>a345f000000uRE6AAM</t>
   </si>
 </sst>
 </file>
@@ -443,7 +479,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +507,78 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -553,7 +661,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -579,11 +687,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -599,8 +725,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="17" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="18" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="20" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="24" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1035,9 +1173,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.99609375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.7890625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.1328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.76171875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1059,13 +1197,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="173">
   <si>
     <t>Item Number</t>
   </si>
@@ -469,6 +469,96 @@
   </si>
   <si>
     <t>a345f000000uRE6AAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-7GCB2</t>
+  </si>
+  <si>
+    <t>a345f000000uT1eAAE</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-GQPN8</t>
+  </si>
+  <si>
+    <t>a345f000000uTAHAA2</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-HVRTM</t>
+  </si>
+  <si>
+    <t>a345f000000uTAMAA2</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-IXH8Q</t>
+  </si>
+  <si>
+    <t>a345f000000uTARAA2</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-IXNNL</t>
+  </si>
+  <si>
+    <t>a345f000000uTAWAA2</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-22M4L</t>
+  </si>
+  <si>
+    <t>a345f000000uTDuAAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-3HPWN</t>
+  </si>
+  <si>
+    <t>a345f000000uTE4AAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-4H23J</t>
+  </si>
+  <si>
+    <t>a345f000000uTE9AAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-EVRTZ</t>
+  </si>
+  <si>
+    <t>a345f000000uTO9AAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-FNSL5</t>
+  </si>
+  <si>
+    <t>a345f000000uTOEAA2</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-G0VZ5</t>
+  </si>
+  <si>
+    <t>a345f000000uTOJAA2</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-GX9HR</t>
+  </si>
+  <si>
+    <t>a345f000000uTOOAA2</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-03LCC</t>
+  </si>
+  <si>
+    <t>a345f000000uTa5AAE</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-J1BD0</t>
+  </si>
+  <si>
+    <t>a345f000000uTiOAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-J7232</t>
+  </si>
+  <si>
+    <t>a345f000000uTj2AAE</t>
   </si>
 </sst>
 </file>
@@ -479,7 +569,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +597,186 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -661,7 +931,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -705,11 +975,56 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -737,8 +1052,38 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="24" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="26" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="30" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="32" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="34" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="35" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="36" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="40" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="41" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="42" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="43" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="44" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="45" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="46" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="47" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="48" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="49" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="50" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="51" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="52" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="53" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="54" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="55" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="57" fillId="0" borderId="27" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1173,9 +1518,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.7890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.9609375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.76171875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1197,13 +1542,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{892A1A25-FF5D-4D3A-98A1-2CB230C3CDA6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4EDCEBAA-0248-4A4A-9168-3878067B00F2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView activeTab="1" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="144">
   <si>
     <t>Item Number</t>
   </si>
@@ -123,9 +123,6 @@
     <t>10 (Denver)</t>
   </si>
   <si>
-    <t>Lot Track</t>
-  </si>
-  <si>
     <t>Operation Type</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Manual Entry</t>
   </si>
   <si>
-    <t>Op 30</t>
-  </si>
-  <si>
     <t>Inventory Division</t>
   </si>
   <si>
@@ -330,12 +324,6 @@
     <t>PK_Lbr Pay (Labor Pay)</t>
   </si>
   <si>
-    <t>20 (Op 20) (Qty Avail:5)</t>
-  </si>
-  <si>
-    <t>20 (Op 20) (Qty Avail:2)</t>
-  </si>
-  <si>
     <t>WO Receipt Traveler</t>
   </si>
   <si>
@@ -390,223 +378,100 @@
     <t>Mayur Suryawanshi</t>
   </si>
   <si>
-    <t>a345f000000uFjXAAU</t>
-  </si>
-  <si>
     <t>Pro-PEItem-H58GD</t>
   </si>
   <si>
     <t>Colorado (100)</t>
   </si>
   <si>
-    <t>Pro-PEItem-IPOKA</t>
-  </si>
-  <si>
-    <t>a345f000000uGVDAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-JHI3X</t>
-  </si>
-  <si>
-    <t>a345f000000uGVIAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-MFMOK</t>
-  </si>
-  <si>
-    <t>a345f000000uGVNAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-3J7D8</t>
-  </si>
-  <si>
-    <t>a345f000000uHNdAAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-9JRA0</t>
-  </si>
-  <si>
-    <t>a345f000000uHzuAAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-JA7EZ</t>
-  </si>
-  <si>
-    <t>a345f000000uI3IAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-RV982</t>
-  </si>
-  <si>
-    <t>a345f000000uQ1FAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-SWEOX</t>
-  </si>
-  <si>
-    <t>a345f000000uQ1KAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-UN0SV</t>
-  </si>
-  <si>
-    <t>a345f000000uQ1PAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-FNKFK</t>
-  </si>
-  <si>
-    <t>a345f000000uRAdAAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-H4W3L</t>
-  </si>
-  <si>
-    <t>a345f000000uRCtAAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-I3FR5</t>
-  </si>
-  <si>
-    <t>a345f000000uRE6AAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-7GCB2</t>
-  </si>
-  <si>
-    <t>a345f000000uT1eAAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-GQPN8</t>
-  </si>
-  <si>
-    <t>a345f000000uTAHAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-HVRTM</t>
-  </si>
-  <si>
-    <t>a345f000000uTAMAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-IXH8Q</t>
-  </si>
-  <si>
-    <t>a345f000000uTARAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-IXNNL</t>
-  </si>
-  <si>
-    <t>a345f000000uTAWAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-22M4L</t>
-  </si>
-  <si>
-    <t>a345f000000uTDuAAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-3HPWN</t>
-  </si>
-  <si>
-    <t>a345f000000uTE4AAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-4H23J</t>
-  </si>
-  <si>
-    <t>a345f000000uTE9AAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-EVRTZ</t>
-  </si>
-  <si>
-    <t>a345f000000uTO9AAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-FNSL5</t>
-  </si>
-  <si>
-    <t>a345f000000uTOEAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-G0VZ5</t>
-  </si>
-  <si>
-    <t>a345f000000uTOJAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-GX9HR</t>
-  </si>
-  <si>
-    <t>a345f000000uTOOAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-03LCC</t>
-  </si>
-  <si>
-    <t>a345f000000uTa5AAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-J1BD0</t>
-  </si>
-  <si>
-    <t>a345f000000uTiOAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-J7232</t>
-  </si>
-  <si>
-    <t>a345f000000uTj2AAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-T7THO</t>
-  </si>
-  <si>
-    <t>a345f000000uUDjAAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-WH3TE</t>
-  </si>
-  <si>
-    <t>a345f000000uUFBAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-F951G</t>
-  </si>
-  <si>
-    <t>a345f000000uUJmAAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-PB9E0</t>
-  </si>
-  <si>
-    <t>a345f000000uVbuAAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-R5932</t>
-  </si>
-  <si>
-    <t>a345f000000uVcJAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-RGYPU</t>
-  </si>
-  <si>
-    <t>a345f000000uVcdAAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-0WVE5</t>
-  </si>
-  <si>
-    <t>a345f000000uWBTAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-28YRN</t>
-  </si>
-  <si>
-    <t>a345f000000uWBsAAM</t>
+    <t>Pro-PEItem-6M4Z3</t>
+  </si>
+  <si>
+    <t>a345f000000uZ56AAE</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-A7565</t>
+  </si>
+  <si>
+    <t>a345f000000uZ5GAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-OUN5U</t>
+  </si>
+  <si>
+    <t>a345f000000uaPPAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-ZZV5U</t>
+  </si>
+  <si>
+    <t>a345f000000uaPUAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-ED7OV</t>
+  </si>
+  <si>
+    <t>a345f000000uaUoAAI</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-UMTET</t>
+  </si>
+  <si>
+    <t>a345f000000uabVAAQ</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-W1WQL</t>
+  </si>
+  <si>
+    <t>a345f000000uabaAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-XOYRT</t>
+  </si>
+  <si>
+    <t>a345f000000uadbAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-Y9A8K</t>
+  </si>
+  <si>
+    <t>a345f000000uaetAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-YHK8K</t>
+  </si>
+  <si>
+    <t>a345f000000uaf8AAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-4HG8Z</t>
+  </si>
+  <si>
+    <t>a345f000000uafmAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-4J92C</t>
+  </si>
+  <si>
+    <t>a345f000000uafrAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-M72O3</t>
+  </si>
+  <si>
+    <t>a345f000000uau8AAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-N4EN6</t>
+  </si>
+  <si>
+    <t>a345f000000uauDAAQ</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-NXQGE</t>
+  </si>
+  <si>
+    <t>a345f000000uauIAAQ</t>
   </si>
 </sst>
 </file>
@@ -617,7 +482,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,258 +510,6 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1075,7 +688,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1125,74 +738,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1224,50 +774,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="30" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="32" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="34" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="35" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="36" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="40" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="41" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="42" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="43" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="44" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="45" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="46" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="47" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="48" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="49" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="50" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="51" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="52" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="53" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="54" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="55" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="56" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="57" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="58" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="59" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="60" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="61" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="62" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="63" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="64" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="65" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="66" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="67" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="68" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="69" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="70" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="71" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="73" fillId="0" borderId="35" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="14" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1550,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1634,10 +1142,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1664,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -1702,9 +1210,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.71875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.3046875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.39453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.7421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1718,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1726,13 +1234,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1743,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4468CCED-9303-4942-85BA-04C540AF4ED4}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView topLeftCell="R6" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1788,112 +1296,112 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>45</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>51</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>CONCATENATE('Routing Master'!B2," (",'Routing Master'!C2,")")</f>
-        <v>Pro-PEItem-H58GD (Lot Track)</v>
+        <v>Pro-PEItem-6M4Z3 (Pro-PEItem-H58GD)</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>55</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>56</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>57</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>58</v>
-      </c>
-      <c r="M2" t="s">
-        <v>59</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1902,13 +1410,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>58</v>
-      </c>
-      <c r="R2" t="s">
-        <v>59</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -1917,13 +1425,13 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -1935,34 +1443,34 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>CONCATENATE('Routing Master'!B2," (",'Routing Master'!C2,")")</f>
-        <v>Pro-PEItem-H58GD (Lot Track)</v>
+        <v>Pro-PEItem-6M4Z3 (Pro-PEItem-H58GD)</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
         <v>61</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1971,13 +1479,13 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
       <c r="R3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -1986,87 +1494,18 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>CONCATENATE('Routing Master'!B2," (",'Routing Master'!C2,")")</f>
-        <v>Pro-PEItem-H58GD (Lot Track)</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
         <v>1</v>
       </c>
     </row>
@@ -2098,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2116,7 +1555,7 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2134,7 +1573,7 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2152,7 +1591,7 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2196,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2224,10 +1663,10 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -2240,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5329BA1-AB63-4C6D-BB5A-232013D72161}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2269,58 +1708,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>87</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>88</v>
-      </c>
-      <c r="N1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>CONCATENATE('Routing Master'!B2," (",'Routing Master'!C2,")")</f>
-        <v>Pro-PEItem-H58GD (Lot Track)</v>
+        <v>Pro-PEItem-6M4Z3 (Pro-PEItem-H58GD)</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="4">
         <v>44537</v>
@@ -2329,76 +1768,19 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>CONCATENATE('Routing Master'!B2," (",'Routing Master'!C2,")")</f>
-        <v>Pro-PEItem-H58GD (Lot Track)</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>CONCATENATE('Routing Master'!B2," (",'Routing Master'!C2,")")</f>
-        <v>Pro-PEItem-H58GD (Lot Track)</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2410,13 +1792,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B55B6DD-20A8-4FAB-8155-791FB78D7E04}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
@@ -2433,31 +1815,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2466,28 +1848,28 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Provar_New\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{892A1A25-FF5D-4D3A-98A1-2CB230C3CDA6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B99D6F-FC47-45B6-B6CE-3A022DAD0CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Engg Item" r:id="rId1" sheetId="1"/>
-    <sheet name="Routing Master" r:id="rId2" sheetId="2"/>
-    <sheet name="Operations" r:id="rId3" sheetId="3"/>
-    <sheet name="Add BOM" r:id="rId4" sheetId="4"/>
-    <sheet name="Create WO" r:id="rId5" sheetId="5"/>
-    <sheet name="Time and Qty Booking" r:id="rId6" sheetId="6"/>
-    <sheet name="WO receipt" r:id="rId7" sheetId="7"/>
+    <sheet name="Create Engg Item" sheetId="1" r:id="rId1"/>
+    <sheet name="Edit Engg Item" sheetId="8" r:id="rId2"/>
+    <sheet name="Routing Master" sheetId="2" r:id="rId3"/>
+    <sheet name="Operations" sheetId="3" r:id="rId4"/>
+    <sheet name="Add BOM" sheetId="4" r:id="rId5"/>
+    <sheet name="Create WO" sheetId="5" r:id="rId6"/>
+    <sheet name="Time and Qty Booking" sheetId="6" r:id="rId7"/>
+    <sheet name="WO receipt" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="122">
   <si>
     <t>Item Number</t>
   </si>
@@ -123,9 +124,6 @@
     <t>10 (Denver)</t>
   </si>
   <si>
-    <t>Lot Track</t>
-  </si>
-  <si>
     <t>Operation Type</t>
   </si>
   <si>
@@ -390,234 +388,35 @@
     <t>Mayur Suryawanshi</t>
   </si>
   <si>
-    <t>a345f000000uFjXAAU</t>
-  </si>
-  <si>
     <t>Pro-PEItem-H58GD</t>
   </si>
   <si>
     <t>Colorado (100)</t>
   </si>
   <si>
-    <t>Pro-PEItem-IPOKA</t>
-  </si>
-  <si>
-    <t>a345f000000uGVDAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-JHI3X</t>
-  </si>
-  <si>
-    <t>a345f000000uGVIAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-MFMOK</t>
-  </si>
-  <si>
-    <t>a345f000000uGVNAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-3J7D8</t>
-  </si>
-  <si>
-    <t>a345f000000uHNdAAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-9JRA0</t>
-  </si>
-  <si>
-    <t>a345f000000uHzuAAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-JA7EZ</t>
-  </si>
-  <si>
-    <t>a345f000000uI3IAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-RV982</t>
-  </si>
-  <si>
-    <t>a345f000000uQ1FAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-SWEOX</t>
-  </si>
-  <si>
-    <t>a345f000000uQ1KAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-UN0SV</t>
-  </si>
-  <si>
-    <t>a345f000000uQ1PAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-FNKFK</t>
-  </si>
-  <si>
-    <t>a345f000000uRAdAAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-H4W3L</t>
-  </si>
-  <si>
-    <t>a345f000000uRCtAAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-I3FR5</t>
-  </si>
-  <si>
-    <t>a345f000000uRE6AAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-7GCB2</t>
-  </si>
-  <si>
-    <t>a345f000000uT1eAAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-GQPN8</t>
-  </si>
-  <si>
-    <t>a345f000000uTAHAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-HVRTM</t>
-  </si>
-  <si>
-    <t>a345f000000uTAMAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-IXH8Q</t>
-  </si>
-  <si>
-    <t>a345f000000uTARAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-IXNNL</t>
-  </si>
-  <si>
-    <t>a345f000000uTAWAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-22M4L</t>
-  </si>
-  <si>
-    <t>a345f000000uTDuAAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-3HPWN</t>
-  </si>
-  <si>
-    <t>a345f000000uTE4AAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-4H23J</t>
-  </si>
-  <si>
-    <t>a345f000000uTE9AAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-EVRTZ</t>
-  </si>
-  <si>
-    <t>a345f000000uTO9AAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-FNSL5</t>
-  </si>
-  <si>
-    <t>a345f000000uTOEAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-G0VZ5</t>
-  </si>
-  <si>
-    <t>a345f000000uTOJAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-GX9HR</t>
-  </si>
-  <si>
-    <t>a345f000000uTOOAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-03LCC</t>
-  </si>
-  <si>
-    <t>a345f000000uTa5AAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-J1BD0</t>
-  </si>
-  <si>
-    <t>a345f000000uTiOAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-J7232</t>
-  </si>
-  <si>
-    <t>a345f000000uTj2AAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-T7THO</t>
-  </si>
-  <si>
-    <t>a345f000000uUDjAAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-WH3TE</t>
-  </si>
-  <si>
-    <t>a345f000000uUFBAA2</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-F951G</t>
-  </si>
-  <si>
-    <t>a345f000000uUJmAAM</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-PB9E0</t>
-  </si>
-  <si>
-    <t>a345f000000uVbuAAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-R5932</t>
-  </si>
-  <si>
-    <t>a345f000000uVcJAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-RGYPU</t>
-  </si>
-  <si>
-    <t>a345f000000uVcdAAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-0WVE5</t>
-  </si>
-  <si>
-    <t>a345f000000uWBTAA2</t>
-  </si>
-  <si>
     <t>Pro-PEItem-28YRN</t>
   </si>
   <si>
     <t>a345f000000uWBsAAM</t>
+  </si>
+  <si>
+    <t>Direct Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lot Track - Updated	</t>
+  </si>
+  <si>
+    <t>Lot Tracked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,426 +445,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1075,7 +454,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1083,197 +462,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="17" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="18" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="20" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="24" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="26" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="30" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="32" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="34" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="35" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="36" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="40" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="41" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="42" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="43" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="44" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="45" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="46" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="47" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="48" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="49" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="50" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="51" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="52" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="53" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="54" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="55" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="56" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="57" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="58" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="59" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="60" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="61" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="62" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="63" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="64" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="65" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="66" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="67" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="68" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="69" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="70" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="71" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="73" fillId="0" borderId="35" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1290,10 +494,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1328,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1363,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1457,21 +661,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1488,7 +692,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1540,40 +744,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="37.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -1583,8 +787,8 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
+      <c r="C1" t="s">
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1628,16 +832,16 @@
       <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1664,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -1686,63 +890,199 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFD7978-B775-4BD4-AD02-05C56EC9573E}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C881394D-3213-4EE6-8345-D56E5E810D94}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.71875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.39453125" collapsed="true"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFD7978-B775-4BD4-AD02-05C56EC9573E}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="37.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>118</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4468CCED-9303-4942-85BA-04C540AF4ED4}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4468CCED-9303-4942-85BA-04C540AF4ED4}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
@@ -1751,33 +1091,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
@@ -1788,79 +1128,79 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>45</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>51</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -1872,58 +1212,58 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>55</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>56</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>57</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>58</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" t="s">
         <v>59</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="W2" t="s">
         <v>58</v>
-      </c>
-      <c r="R2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -1941,43 +1281,43 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
         <v>61</v>
       </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
       <c r="R3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -1986,13 +1326,13 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -2010,59 +1350,59 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
         <v>55</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>56</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>57</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>58</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" t="s">
         <v>59</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="W4" t="s">
         <v>58</v>
       </c>
-      <c r="R4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W4" t="s">
-        <v>59</v>
-      </c>
       <c r="X4">
         <v>1</v>
       </c>
@@ -2071,12 +1411,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F360E4A-BCCC-4DA8-B7DF-8940BA01DD94}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F360E4A-BCCC-4DA8-B7DF-8940BA01DD94}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,12 +1425,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2098,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2116,7 +1456,7 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2134,7 +1474,7 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2152,7 +1492,7 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2165,13 +1505,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00498F2-CC9D-4D63-B632-9B7CC73726CB}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00498F2-CC9D-4D63-B632-9B7CC73726CB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2180,12 +1520,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2196,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2224,22 +1564,22 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5329BA1-AB63-4C6D-BB5A-232013D72161}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5329BA1-AB63-4C6D-BB5A-232013D72161}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2248,20 +1588,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="5.77734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2269,46 +1609,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>87</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>88</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>89</v>
-      </c>
-      <c r="O1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2320,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="4">
         <v>44537</v>
@@ -2329,22 +1669,22 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" t="s">
         <v>92</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>93</v>
-      </c>
-      <c r="O2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2353,13 +1693,13 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -2368,10 +1708,10 @@
         <v>3</v>
       </c>
       <c r="N3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" t="s">
         <v>93</v>
-      </c>
-      <c r="O3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2380,13 +1720,13 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -2395,19 +1735,19 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" t="s">
         <v>93</v>
       </c>
-      <c r="O4" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B55B6DD-20A8-4FAB-8155-791FB78D7E04}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B55B6DD-20A8-4FAB-8155-791FB78D7E04}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2416,16 +1756,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2433,31 +1773,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>103</v>
-      </c>
-      <c r="J1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2466,31 +1806,31 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>107</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
         <v>109</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>110</v>
       </c>
-      <c r="J2" t="s">
-        <v>111</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Provar_New\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B99D6F-FC47-45B6-B6CE-3A022DAD0CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4EDCEBAA-0248-4A4A-9168-3878067B00F2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Engg Item" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit Engg Item" sheetId="8" r:id="rId2"/>
-    <sheet name="Routing Master" sheetId="2" r:id="rId3"/>
-    <sheet name="Operations" sheetId="3" r:id="rId4"/>
-    <sheet name="Add BOM" sheetId="4" r:id="rId5"/>
-    <sheet name="Create WO" sheetId="5" r:id="rId6"/>
-    <sheet name="Time and Qty Booking" sheetId="6" r:id="rId7"/>
-    <sheet name="WO receipt" sheetId="7" r:id="rId8"/>
+    <sheet name="Create Engg Item" r:id="rId1" sheetId="1"/>
+    <sheet name="Routing Master" r:id="rId2" sheetId="2"/>
+    <sheet name="Operations" r:id="rId3" sheetId="3"/>
+    <sheet name="Add BOM" r:id="rId4" sheetId="4"/>
+    <sheet name="Create WO" r:id="rId5" sheetId="5"/>
+    <sheet name="Time and Qty Booking" r:id="rId6" sheetId="6"/>
+    <sheet name="WO receipt" r:id="rId7" sheetId="7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
   <si>
     <t>Item Number</t>
   </si>
@@ -229,9 +228,6 @@
     <t>Manual Entry</t>
   </si>
   <si>
-    <t>Op 30</t>
-  </si>
-  <si>
     <t>Inventory Division</t>
   </si>
   <si>
@@ -328,12 +324,6 @@
     <t>PK_Lbr Pay (Labor Pay)</t>
   </si>
   <si>
-    <t>20 (Op 20) (Qty Avail:5)</t>
-  </si>
-  <si>
-    <t>20 (Op 20) (Qty Avail:2)</t>
-  </si>
-  <si>
     <t>WO Receipt Traveler</t>
   </si>
   <si>
@@ -394,29 +384,111 @@
     <t>Colorado (100)</t>
   </si>
   <si>
-    <t>Pro-PEItem-28YRN</t>
-  </si>
-  <si>
-    <t>a345f000000uWBsAAM</t>
-  </si>
-  <si>
-    <t>Direct Material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lot Track - Updated	</t>
-  </si>
-  <si>
-    <t>Lot Tracked</t>
+    <t>Pro-PEItem-6M4Z3</t>
+  </si>
+  <si>
+    <t>a345f000000uZ56AAE</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-A7565</t>
+  </si>
+  <si>
+    <t>a345f000000uZ5GAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-OUN5U</t>
+  </si>
+  <si>
+    <t>a345f000000uaPPAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-ZZV5U</t>
+  </si>
+  <si>
+    <t>a345f000000uaPUAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-ED7OV</t>
+  </si>
+  <si>
+    <t>a345f000000uaUoAAI</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-UMTET</t>
+  </si>
+  <si>
+    <t>a345f000000uabVAAQ</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-W1WQL</t>
+  </si>
+  <si>
+    <t>a345f000000uabaAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-XOYRT</t>
+  </si>
+  <si>
+    <t>a345f000000uadbAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-Y9A8K</t>
+  </si>
+  <si>
+    <t>a345f000000uaetAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-YHK8K</t>
+  </si>
+  <si>
+    <t>a345f000000uaf8AAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-4HG8Z</t>
+  </si>
+  <si>
+    <t>a345f000000uafmAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-4J92C</t>
+  </si>
+  <si>
+    <t>a345f000000uafrAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-M72O3</t>
+  </si>
+  <si>
+    <t>a345f000000uau8AAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-N4EN6</t>
+  </si>
+  <si>
+    <t>a345f000000uauDAAQ</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-NXQGE</t>
+  </si>
+  <si>
+    <t>a345f000000uauIAAQ</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-GIA28</t>
+  </si>
+  <si>
+    <t>a345f000000udXVAAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +516,186 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -454,7 +706,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -462,22 +714,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="35">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="17" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="18" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="20" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="24" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="26" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="30" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="15" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -494,10 +821,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -532,7 +859,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -567,7 +894,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -661,21 +988,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -692,7 +1019,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -744,40 +1071,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="37.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -787,8 +1114,8 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -832,16 +1159,16 @@
       <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -868,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -890,234 +1217,98 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C881394D-3213-4EE6-8345-D56E5E810D94}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFD7978-B775-4BD4-AD02-05C56EC9573E}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.24609375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1171875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFD7978-B775-4BD4-AD02-05C56EC9573E}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4468CCED-9303-4942-85BA-04C540AF4ED4}">
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="R6" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="37.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4468CCED-9303-4942-85BA-04C540AF4ED4}">
-  <dimension ref="A1:AA4"/>
-  <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
@@ -1206,7 +1397,7 @@
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>CONCATENATE('Routing Master'!B2," (",'Routing Master'!C2,")")</f>
-        <v>Pro-PEItem-H58GD (Lot Track)</v>
+        <v>Pro-PEItem-6M4Z3 (Pro-PEItem-H58GD)</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -1275,7 +1466,7 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>CONCATENATE('Routing Master'!B2," (",'Routing Master'!C2,")")</f>
-        <v>Pro-PEItem-H58GD (Lot Track)</v>
+        <v>Pro-PEItem-6M4Z3 (Pro-PEItem-H58GD)</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1341,82 +1532,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>CONCATENATE('Routing Master'!B2," (",'Routing Master'!C2,")")</f>
-        <v>Pro-PEItem-H58GD (Lot Track)</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W4" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F360E4A-BCCC-4DA8-B7DF-8940BA01DD94}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F360E4A-BCCC-4DA8-B7DF-8940BA01DD94}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1425,12 +1547,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1438,16 +1560,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1456,7 +1578,7 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1474,7 +1596,7 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1492,7 +1614,7 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1505,13 +1627,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00498F2-CC9D-4D63-B632-9B7CC73726CB}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00498F2-CC9D-4D63-B632-9B7CC73726CB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1520,12 +1642,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1536,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1564,44 +1686,44 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
         <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5329BA1-AB63-4C6D-BB5A-232013D72161}">
-  <dimension ref="A1:O4"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5329BA1-AB63-4C6D-BB5A-232013D72161}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="4.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1609,58 +1731,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>88</v>
-      </c>
-      <c r="O1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>CONCATENATE('Routing Master'!B2," (",'Routing Master'!C2,")")</f>
-        <v>Pro-PEItem-H58GD (Lot Track)</v>
+        <v>Pro-PEItem-6M4Z3 (Pro-PEItem-H58GD)</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="4">
         <v>44537</v>
@@ -1669,103 +1791,46 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s">
         <v>92</v>
-      </c>
-      <c r="O2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>CONCATENATE('Routing Master'!B2," (",'Routing Master'!C2,")")</f>
-        <v>Pro-PEItem-H58GD (Lot Track)</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>CONCATENATE('Routing Master'!B2," (",'Routing Master'!C2,")")</f>
-        <v>Pro-PEItem-H58GD (Lot Track)</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B55B6DD-20A8-4FAB-8155-791FB78D7E04}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B55B6DD-20A8-4FAB-8155-791FB78D7E04}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1773,31 +1838,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1806,31 +1871,31 @@
         <v>Pro-PEItem-H58GD (Lot Track)</v>
       </c>
       <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
         <v>104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="184">
   <si>
     <t>Item Number</t>
   </si>
@@ -562,6 +562,36 @@
   </si>
   <si>
     <t>a345f000000uodpAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-O4DNB</t>
+  </si>
+  <si>
+    <t>a345f000000uuQHAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-ZNVJL</t>
+  </si>
+  <si>
+    <t>a345f000000uuQMAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-2ZN94</t>
+  </si>
+  <si>
+    <t>a345f000000uuQRAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-83LO0</t>
+  </si>
+  <si>
+    <t>a345f000000uuSIAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-U4P3B</t>
+  </si>
+  <si>
+    <t>a345f000000uudGAAQ</t>
   </si>
 </sst>
 </file>
@@ -572,7 +602,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="72" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +630,66 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -958,7 +1048,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1053,11 +1143,26 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1119,8 +1224,18 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="57" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="58" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="59" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="29" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="60" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="61" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="62" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="63" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="64" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="65" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="66" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="67" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="68" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="69" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="71" fillId="0" borderId="34" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1555,9 +1670,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.30078125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7734375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.2421875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.6796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1579,13 +1694,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4EDCEBAA-0248-4A4A-9168-3878067B00F2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566A8D75-9673-4EEE-83CA-CFEE60848E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Engg Item" r:id="rId1" sheetId="1"/>
-    <sheet name="Routing Master" r:id="rId2" sheetId="2"/>
-    <sheet name="Operations" r:id="rId3" sheetId="3"/>
-    <sheet name="Add BOM" r:id="rId4" sheetId="4"/>
-    <sheet name="Create WO" r:id="rId5" sheetId="5"/>
-    <sheet name="Time and Qty Booking" r:id="rId6" sheetId="6"/>
-    <sheet name="WO receipt" r:id="rId7" sheetId="7"/>
+    <sheet name="Create Engg Item" sheetId="1" r:id="rId1"/>
+    <sheet name="Routing Master" sheetId="2" r:id="rId2"/>
+    <sheet name="Operations" sheetId="3" r:id="rId3"/>
+    <sheet name="Add BOM" sheetId="4" r:id="rId4"/>
+    <sheet name="Create WO" sheetId="5" r:id="rId5"/>
+    <sheet name="Time and Qty Booking" sheetId="6" r:id="rId6"/>
+    <sheet name="WO receipt" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>Item Number</t>
   </si>
@@ -384,225 +384,20 @@
     <t>Colorado (100)</t>
   </si>
   <si>
-    <t>Pro-PEItem-6M4Z3</t>
-  </si>
-  <si>
-    <t>a345f000000uZ56AAE</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-A7565</t>
-  </si>
-  <si>
-    <t>a345f000000uZ5GAAU</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-OUN5U</t>
-  </si>
-  <si>
-    <t>a345f000000uaPPAAY</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-ZZV5U</t>
-  </si>
-  <si>
-    <t>a345f000000uaPUAAY</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-ED7OV</t>
-  </si>
-  <si>
-    <t>a345f000000uaUoAAI</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-UMTET</t>
-  </si>
-  <si>
-    <t>a345f000000uabVAAQ</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-W1WQL</t>
-  </si>
-  <si>
-    <t>a345f000000uabaAAA</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-XOYRT</t>
-  </si>
-  <si>
-    <t>a345f000000uadbAAA</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-Y9A8K</t>
-  </si>
-  <si>
-    <t>a345f000000uaetAAA</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-YHK8K</t>
-  </si>
-  <si>
-    <t>a345f000000uaf8AAA</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-4HG8Z</t>
-  </si>
-  <si>
-    <t>a345f000000uafmAAA</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-4J92C</t>
-  </si>
-  <si>
-    <t>a345f000000uafrAAA</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-M72O3</t>
-  </si>
-  <si>
-    <t>a345f000000uau8AAA</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-N4EN6</t>
-  </si>
-  <si>
-    <t>a345f000000uauDAAQ</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-NXQGE</t>
-  </si>
-  <si>
-    <t>a345f000000uauIAAQ</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-JK8M4</t>
-  </si>
-  <si>
-    <t>a345f000000uc5GAAQ</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-W0WHB</t>
-  </si>
-  <si>
-    <t>a345f000000udLyAAI</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-960EG</t>
-  </si>
-  <si>
-    <t>a345f000000uhTcAAI</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-AAP8J</t>
-  </si>
-  <si>
-    <t>a345f000000uhThAAI</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-AXCHR</t>
-  </si>
-  <si>
-    <t>a345f000000uhTmAAI</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-SGAF2</t>
-  </si>
-  <si>
-    <t>a345f000000ukx7AAA</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-FQQX7</t>
-  </si>
-  <si>
-    <t>a345f000000ul3oAAA</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-432XP</t>
-  </si>
-  <si>
-    <t>a345f000000ulBEAAY</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-E62NP</t>
-  </si>
-  <si>
-    <t>a345f000000ulBJAAY</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-FOWHH</t>
-  </si>
-  <si>
-    <t>a345f000000ulBOAAY</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-GFMJU</t>
-  </si>
-  <si>
-    <t>a345f000000ulBTAAY</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-8LXV4</t>
-  </si>
-  <si>
-    <t>a345f000000umbwAAA</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-JUFH9</t>
-  </si>
-  <si>
-    <t>a345f000000uoYQAAY</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-ON9CX</t>
-  </si>
-  <si>
-    <t>a345f000000uoalAAA</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-W05B7</t>
-  </si>
-  <si>
-    <t>a345f000000uodpAAA</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-O4DNB</t>
-  </si>
-  <si>
-    <t>a345f000000uuQHAAY</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-ZNVJL</t>
-  </si>
-  <si>
-    <t>a345f000000uuQMAAY</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-2ZN94</t>
-  </si>
-  <si>
-    <t>a345f000000uuQRAAY</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-83LO0</t>
-  </si>
-  <si>
-    <t>a345f000000uuSIAAY</t>
-  </si>
-  <si>
-    <t>Pro-PEItem-U4P3B</t>
-  </si>
-  <si>
-    <t>a345f000000uudGAAQ</t>
+    <t>Pro-PEItem-ZWVER</t>
+  </si>
+  <si>
+    <t>a345f000000uvxjAAA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,414 +426,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1048,7 +435,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1056,192 +443,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="17" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="18" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="20" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="24" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="26" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="30" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="32" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="34" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="35" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="36" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="40" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="41" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="42" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="43" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="44" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="45" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="46" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="47" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="48" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="49" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="50" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="51" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="52" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="53" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="54" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="55" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="56" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="57" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="58" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="59" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="60" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="61" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="62" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="63" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="64" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="65" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="66" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="67" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="68" numFmtId="165" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="69" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="71" fillId="0" borderId="34" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1258,10 +475,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1296,7 +513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1331,7 +548,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1425,21 +642,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1456,7 +673,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1508,40 +725,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="37.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -1654,13 +871,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFD7978-B775-4BD4-AD02-05C56EC9573E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFD7978-B775-4BD4-AD02-05C56EC9573E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1669,10 +886,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7734375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.6796875" collapsed="true"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1694,58 +911,58 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4468CCED-9303-4942-85BA-04C540AF4ED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4468CCED-9303-4942-85BA-04C540AF4ED4}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="R6" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
@@ -1970,12 +1187,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F360E4A-BCCC-4DA8-B7DF-8940BA01DD94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F360E4A-BCCC-4DA8-B7DF-8940BA01DD94}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1984,12 +1201,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2064,13 +1281,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00498F2-CC9D-4D63-B632-9B7CC73726CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00498F2-CC9D-4D63-B632-9B7CC73726CB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2079,12 +1296,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2133,34 +1350,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5329BA1-AB63-4C6D-BB5A-232013D72161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5329BA1-AB63-4C6D-BB5A-232013D72161}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="5.77734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="34.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2244,30 +1461,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B55B6DD-20A8-4FAB-8155-791FB78D7E04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B55B6DD-20A8-4FAB-8155-791FB78D7E04}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2333,6 +1550,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>